--- a/Docs/PlanilhaDeDados.xlsx
+++ b/Docs/PlanilhaDeDados.xlsx
@@ -442,11 +442,11 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,12 +466,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.88"/>
@@ -1711,7 +1711,6 @@
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="15"/>
@@ -1739,7 +1738,6 @@
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="15"/>
@@ -1767,7 +1765,6 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="15"/>
@@ -1795,7 +1792,6 @@
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="15"/>
@@ -1823,7 +1819,6 @@
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="15"/>
@@ -1851,7 +1846,6 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="15"/>
@@ -1879,7 +1873,6 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="15"/>
@@ -1907,7 +1900,6 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="15"/>
@@ -1935,7 +1927,6 @@
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="15"/>
@@ -1963,7 +1954,6 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="15"/>
@@ -1991,7 +1981,6 @@
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="15"/>

--- a/Docs/PlanilhaDeDados.xlsx
+++ b/Docs/PlanilhaDeDados.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t xml:space="preserve">No.  Contrato</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Dias da semana *</t>
   </si>
   <si>
-    <t xml:space="preserve">João</t>
+    <t xml:space="preserve">Henrique nitatori</t>
   </si>
   <si>
     <t xml:space="preserve">Particular - Neuropsicopedagogia</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">7:40</t>
   </si>
   <si>
-    <t xml:space="preserve">SEG;TER</t>
+    <t xml:space="preserve">SEG,TER</t>
   </si>
   <si>
     <t xml:space="preserve">Plano - Terapia Ocupacional</t>
@@ -86,22 +86,22 @@
     <t xml:space="preserve">13:40</t>
   </si>
   <si>
-    <t xml:space="preserve">QUI,SEXT</t>
+    <t xml:space="preserve">QUI,SEX</t>
   </si>
   <si>
-    <t xml:space="preserve">Maria</t>
+    <t xml:space="preserve">Julio</t>
   </si>
   <si>
     <t xml:space="preserve">Plano - Fonoaudiologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">8:00</t>
   </si>
   <si>
     <t xml:space="preserve">8:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEG,TER</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
@@ -159,10 +159,10 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="[$R$]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="168" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="169" formatCode="HH:MM"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="167" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="168" formatCode="HH:MM"/>
+    <numFmt numFmtId="169" formatCode="[$R$]#,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -325,11 +325,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,8 +333,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -362,75 +362,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFB7E1CD"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -442,11 +373,11 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" activeCellId="0" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,7 +385,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
@@ -464,12 +396,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.39"/>
@@ -625,20 +557,20 @@
       <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>4</v>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>900</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>9</v>
@@ -671,267 +603,267 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="13"/>
+    <row r="4" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -944,22 +876,22 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="13"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -972,22 +904,22 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="13"/>
+      <c r="Z14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1000,22 +932,22 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="13"/>
+      <c r="Z15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1028,22 +960,22 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1056,22 +988,22 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="13"/>
+      <c r="Z17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1084,22 +1016,22 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="13"/>
+      <c r="Z18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1112,22 +1044,22 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="13"/>
+      <c r="Z19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1140,22 +1072,22 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="13"/>
+      <c r="Z20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1168,22 +1100,22 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="13"/>
+      <c r="Z21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1196,22 +1128,22 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="13"/>
+      <c r="Z22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1224,22 +1156,22 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="13"/>
+      <c r="Z23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1252,22 +1184,22 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="13"/>
+      <c r="Z24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1280,22 +1212,22 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="13"/>
+      <c r="Z25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1308,22 +1240,22 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="13"/>
+      <c r="Z26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1336,22 +1268,22 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="13"/>
+      <c r="Z27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1364,22 +1296,22 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="13"/>
+      <c r="Z28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1392,22 +1324,22 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="13"/>
+      <c r="Z29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1420,22 +1352,22 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="13"/>
+      <c r="Z30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1448,22 +1380,22 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="13"/>
+      <c r="Z31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1476,22 +1408,22 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="13"/>
+      <c r="Z32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1504,22 +1436,22 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="13"/>
+      <c r="Z33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1532,22 +1464,22 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="13"/>
+      <c r="Z34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1560,22 +1492,22 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="13"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1588,22 +1520,22 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="13"/>
+      <c r="Z36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -1616,22 +1548,22 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="13"/>
+      <c r="Z37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1644,22 +1576,22 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="13"/>
+      <c r="Z38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -1672,22 +1604,22 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="13"/>
+      <c r="Z39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -1700,21 +1632,21 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-      <c r="Z40" s="13"/>
+      <c r="Z40" s="17"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="13"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -1727,21 +1659,21 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="13"/>
+      <c r="Z41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
+      <c r="C42" s="13"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -1754,21 +1686,21 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="13"/>
+      <c r="Z42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="14"/>
+      <c r="C43" s="13"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -1781,21 +1713,21 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="13"/>
+      <c r="Z43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="14"/>
+      <c r="C44" s="13"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -1808,21 +1740,21 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="13"/>
+      <c r="Z44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="14"/>
+      <c r="C45" s="13"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -1835,21 +1767,21 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="13"/>
+      <c r="Z45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="13"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -1862,21 +1794,21 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="13"/>
+      <c r="Z46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="14"/>
+      <c r="C47" s="13"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -1889,21 +1821,21 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="13"/>
+      <c r="Z47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="14"/>
+      <c r="C48" s="13"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -1916,21 +1848,21 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="13"/>
+      <c r="Z48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="14"/>
+      <c r="C49" s="13"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -1943,21 +1875,21 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="13"/>
+      <c r="Z49" s="17"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="13"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -1970,21 +1902,21 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-      <c r="Z50" s="13"/>
+      <c r="Z50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="14"/>
+      <c r="C51" s="13"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -1997,22 +1929,22 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="13"/>
+      <c r="Z51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2025,22 +1957,22 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="13"/>
+      <c r="Z52" s="17"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2053,22 +1985,22 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
-      <c r="Z53" s="13"/>
+      <c r="Z53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="14"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -2081,22 +2013,22 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="13"/>
+      <c r="Z54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -2109,22 +2041,22 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="13"/>
+      <c r="Z55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="16"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -2137,22 +2069,22 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="13"/>
+      <c r="Z56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="14"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -2165,22 +2097,22 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-      <c r="Z57" s="13"/>
+      <c r="Z57" s="17"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2193,22 +2125,22 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="13"/>
+      <c r="Z58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="14"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="16"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -2221,22 +2153,22 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="13"/>
+      <c r="Z59" s="17"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="14"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="16"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -2249,22 +2181,22 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="13"/>
+      <c r="Z60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="14"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="16"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -2277,21 +2209,21 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-      <c r="Z61" s="13"/>
+      <c r="Z61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="12"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="16"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -2304,21 +2236,21 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-      <c r="Z62" s="13"/>
+      <c r="Z62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="12"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="16"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -2331,21 +2263,21 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-      <c r="Z63" s="13"/>
+      <c r="Z63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="12"/>
-      <c r="C64" s="14"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="16"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -2358,12 +2290,12 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
-      <c r="Z64" s="13"/>
+      <c r="Z64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3301,17 +3233,12 @@
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="L4 L6">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(L4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:S64" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S13:S64" type="list">
       <formula1>Planos!$B$3:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C3 I2:I3 O2" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C3 I2:I12 O2 C4:C12" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3373,7 +3300,7 @@
       <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3384,7 +3311,7 @@
       <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="17" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3395,7 +3322,7 @@
       <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="17" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3406,7 +3333,7 @@
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="17" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3417,7 +3344,7 @@
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3428,7 +3355,7 @@
       <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="17" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3439,7 +3366,7 @@
       <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="17" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3450,7 +3377,7 @@
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="17" t="n">
         <v>30</v>
       </c>
     </row>

--- a/Docs/PlanilhaDeDados.xlsx
+++ b/Docs/PlanilhaDeDados.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">QUI,SEX</t>
   </si>
   <si>
-    <t xml:space="preserve">Julio</t>
+    <t xml:space="preserve">Julio </t>
   </si>
   <si>
     <t xml:space="preserve">Plano - Fonoaudiologia</t>

--- a/Docs/PlanilhaDeDados.xlsx
+++ b/Docs/PlanilhaDeDados.xlsx
@@ -377,7 +377,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Docs/PlanilhaDeDados.xlsx
+++ b/Docs/PlanilhaDeDados.xlsx
@@ -377,7 +377,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
